--- a/Problema7/Solucion.xlsx
+++ b/Problema7/Solucion.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vicmmitar\Documents\IA\ParcialIA\Problema7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D15F1A3-91D2-4726-BF4A-6F27DA8AA613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB249EF-2733-4BC3-9CBC-C88748CAF4B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" xr2:uid="{86E421C4-F796-4F9D-95D2-2AA771DFD610}"/>
   </bookViews>
@@ -33,14 +33,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>f(x)=x^3+2</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Poblacion</t>
   </si>
@@ -54,40 +70,13 @@
     <t>Cruce</t>
   </si>
   <si>
-    <t>001010</t>
-  </si>
-  <si>
-    <t>001001</t>
-  </si>
-  <si>
-    <t>000111</t>
-  </si>
-  <si>
-    <t>000110</t>
-  </si>
-  <si>
-    <t>000101</t>
-  </si>
-  <si>
-    <t>000100</t>
-  </si>
-  <si>
-    <t>000011</t>
-  </si>
-  <si>
-    <t>000010</t>
-  </si>
-  <si>
-    <t>001111</t>
-  </si>
-  <si>
-    <t>000000</t>
-  </si>
-  <si>
     <t>Mutacion</t>
   </si>
   <si>
-    <t>Poblacion 1</t>
+    <t>Generacion 1</t>
+  </si>
+  <si>
+    <t>f(x)=x^2+x+1</t>
   </si>
 </sst>
 </file>
@@ -138,19 +127,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,352 +448,895 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07DDB00-B4EC-4865-AC78-466DAF9829F7}">
-  <dimension ref="A2:H14"/>
+  <dimension ref="A2:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="11.5546875" style="1"/>
-    <col min="5" max="5" width="11.5546875" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="11.5546875" style="1"/>
+    <col min="1" max="2" width="11.5546875" style="1"/>
+    <col min="3" max="3" width="11.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="2" customWidth="1"/>
+    <col min="5" max="6" width="11.5546875" style="2"/>
+    <col min="7" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="1">
-        <f>POWER(A5,3)+2</f>
+      <c r="B5" s="1" cm="1">
+        <f t="array" ref="B5:B14">_xlfn._xlws.SORT(A5:A14,1,-1)</f>
         <v>10</v>
       </c>
       <c r="C5" s="1">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1002</v>
+        <f>B5^2+B5+2</f>
+        <v>112</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f t="shared" ref="D5:D14" si="0">DEC2BIN(B5,6)</f>
+        <v>001010</v>
       </c>
       <c r="E5" s="2" t="str">
-        <f>DEC2BIN(C5,6)</f>
-        <v>001010</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="1" t="str">
-        <f>IF(MID(F5,3,1)="0",REPLACE(F5,3,1,1),REPLACE(F5,3,1,0))</f>
+        <f>LEFT(D5,ROUNDDOWN(LEN(D5)/2,0))&amp;RIGHT(D6,ROUNDDOWN(LEN(D6)/2,0))</f>
+        <v>001001</v>
+      </c>
+      <c r="F5" s="2" t="str">
+        <f>IF(MID(E5,3,1)="0",REPLACE(E5,3,1,1),REPLACE(E5,3,1,0))</f>
         <v>000001</v>
       </c>
-      <c r="H5" s="1">
-        <f>BIN2DEC(G5)</f>
+      <c r="G5" s="1">
+        <f>BIN2DEC(F5)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
-        <f t="shared" ref="B6:B14" si="0">POWER(A6,3)+2</f>
-        <v>66</v>
-      </c>
-      <c r="C6" s="4">
+      <c r="B6" s="3">
         <v>9</v>
       </c>
-      <c r="D6" s="4">
-        <v>731</v>
+      <c r="C6" s="1">
+        <f t="shared" ref="C6:C14" si="1">B6^2+B6+2</f>
+        <v>92</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>001001</v>
       </c>
       <c r="E6" s="2" t="str">
-        <f t="shared" ref="E6:E14" si="1">DEC2BIN(C6,6)</f>
-        <v>001001</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="1" t="str">
-        <f t="shared" ref="G6:G14" si="2">IF(MID(F6,3,1)="0",REPLACE(F6,3,1,1),REPLACE(F6,3,1,0))</f>
+        <f>LEFT(D6,ROUNDDOWN(LEN(D6)/2,0))&amp;RIGHT(D5,ROUNDDOWN(LEN(D5)/2,0))</f>
+        <v>001010</v>
+      </c>
+      <c r="F6" s="2" t="str">
+        <f t="shared" ref="F6:F14" si="2">IF(MID(E6,3,1)="0",REPLACE(E6,3,1,1),REPLACE(E6,3,1,0))</f>
         <v>000010</v>
       </c>
-      <c r="H6" s="1">
-        <f t="shared" ref="H6:H14" si="3">BIN2DEC(G6)</f>
+      <c r="G6" s="1">
+        <f t="shared" ref="G6:G14" si="3">BIN2DEC(F6)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>8</v>
       </c>
       <c r="B7" s="1">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="D7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>514</v>
-      </c>
-      <c r="C7" s="1">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1">
-        <v>514</v>
+        <v>001000</v>
       </c>
       <c r="E7" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>001000</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="1" t="str">
+        <f>LEFT(D7,ROUNDDOWN(LEN(D7)/2,0))&amp;RIGHT(D8,ROUNDDOWN(LEN(D8)/2,0))</f>
+        <v>001111</v>
+      </c>
+      <c r="F7" s="2" t="str">
         <f t="shared" si="2"/>
         <v>000111</v>
       </c>
-      <c r="H7" s="1">
+      <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="3">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>345</v>
-      </c>
-      <c r="C8" s="4">
-        <v>7</v>
-      </c>
-      <c r="D8" s="4">
-        <v>345</v>
+        <v>000111</v>
       </c>
       <c r="E8" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>000111</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="1" t="str">
+        <f>LEFT(D8,ROUNDDOWN(LEN(D8)/2,0))&amp;RIGHT(D7,ROUNDDOWN(LEN(D7)/2,0))</f>
+        <v>000000</v>
+      </c>
+      <c r="F8" s="2" t="str">
         <f t="shared" si="2"/>
         <v>001000</v>
       </c>
-      <c r="H8" s="1">
+      <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>9</v>
       </c>
       <c r="B9" s="1">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="D9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>731</v>
-      </c>
-      <c r="C9" s="1">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1">
-        <v>345</v>
+        <v>000111</v>
       </c>
       <c r="E9" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>000111</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="1" t="str">
+        <f>LEFT(D9,ROUNDDOWN(LEN(D9)/2,0))&amp;RIGHT(D10,ROUNDDOWN(LEN(D10)/2,0))</f>
+        <v>000110</v>
+      </c>
+      <c r="F9" s="2" t="str">
         <f t="shared" si="2"/>
         <v>001110</v>
       </c>
-      <c r="H9" s="1">
+      <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>10</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="3">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="D10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1002</v>
-      </c>
-      <c r="C10" s="4">
-        <v>6</v>
-      </c>
-      <c r="D10" s="4">
-        <v>218</v>
+        <v>000110</v>
       </c>
       <c r="E10" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>000110</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="1" t="str">
+        <f>LEFT(D10,ROUNDDOWN(LEN(D10)/2,0))&amp;RIGHT(D9,ROUNDDOWN(LEN(D9)/2,0))</f>
+        <v>000111</v>
+      </c>
+      <c r="F10" s="2" t="str">
         <f t="shared" si="2"/>
         <v>001111</v>
       </c>
-      <c r="H10" s="1">
+      <c r="G10" s="1">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>5</v>
       </c>
       <c r="B11" s="1">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="D11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>127</v>
-      </c>
-      <c r="C11" s="1">
-        <v>5</v>
-      </c>
-      <c r="D11" s="1">
-        <v>127</v>
+        <v>000101</v>
       </c>
       <c r="E11" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>000101</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="1" t="str">
+        <f>LEFT(D11,ROUNDDOWN(LEN(D11)/2,0))&amp;RIGHT(D12,ROUNDDOWN(LEN(D12)/2,0))</f>
+        <v>000100</v>
+      </c>
+      <c r="F11" s="2" t="str">
         <f t="shared" si="2"/>
         <v>001100</v>
       </c>
-      <c r="H11" s="1">
+      <c r="G11" s="1">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>3</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="3">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="D12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="C12" s="4">
-        <v>4</v>
-      </c>
-      <c r="D12" s="4">
-        <v>66</v>
+        <v>000100</v>
       </c>
       <c r="E12" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>000100</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="1" t="str">
+        <f>LEFT(D12,ROUNDDOWN(LEN(D12)/2,0))&amp;RIGHT(D11,ROUNDDOWN(LEN(D11)/2,0))</f>
+        <v>000101</v>
+      </c>
+      <c r="F12" s="2" t="str">
         <f t="shared" si="2"/>
         <v>001101</v>
       </c>
-      <c r="H12" s="1">
+      <c r="G12" s="1">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>6</v>
       </c>
       <c r="B13" s="1">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="D13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>218</v>
-      </c>
-      <c r="C13" s="1">
-        <v>3</v>
-      </c>
-      <c r="D13" s="1">
-        <v>29</v>
+        <v>000011</v>
       </c>
       <c r="E13" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>000011</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="1" t="str">
+        <f>LEFT(D13,ROUNDDOWN(LEN(D13)/2,0))&amp;RIGHT(D14,ROUNDDOWN(LEN(D14)/2,0))</f>
+        <v>000010</v>
+      </c>
+      <c r="F13" s="2" t="str">
         <f t="shared" si="2"/>
         <v>001010</v>
       </c>
-      <c r="H13" s="1">
+      <c r="G13" s="1">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>7</v>
       </c>
       <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>345</v>
-      </c>
-      <c r="C14" s="1">
-        <v>2</v>
-      </c>
-      <c r="D14" s="1">
-        <v>10</v>
+        <v>000010</v>
       </c>
       <c r="E14" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>000010</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="1" t="str">
+        <f>LEFT(D14,ROUNDDOWN(LEN(D14)/2,0))&amp;RIGHT(D13,ROUNDDOWN(LEN(D13)/2,0))</f>
+        <v>000011</v>
+      </c>
+      <c r="F14" s="2" t="str">
         <f t="shared" si="2"/>
         <v>001011</v>
       </c>
-      <c r="H14" s="1">
+      <c r="G14" s="1">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
     </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" cm="1">
+        <f t="array" ref="A16:A25">G5:G14</f>
+        <v>1</v>
+      </c>
+      <c r="B16" s="1" cm="1">
+        <f t="array" ref="B16:B25">_xlfn._xlws.SORT(A16:A25,1,-1)</f>
+        <v>15</v>
+      </c>
+      <c r="C16" s="1">
+        <f>B16^2+B16+2</f>
+        <v>242</v>
+      </c>
+      <c r="D16" s="2" t="str">
+        <f t="shared" ref="D16:D25" si="4">DEC2BIN(B16,6)</f>
+        <v>001111</v>
+      </c>
+      <c r="E16" s="2" t="str">
+        <f>LEFT(D16,ROUNDDOWN(LEN(D16)/2,0))&amp;RIGHT(D17,ROUNDDOWN(LEN(D17)/2,0))</f>
+        <v>001110</v>
+      </c>
+      <c r="F16" s="2" t="str">
+        <f>IF(MID(E16,3,1)="0",REPLACE(E16,3,1,1),REPLACE(E16,3,1,0))</f>
+        <v>000110</v>
+      </c>
+      <c r="G16" s="1">
+        <f>BIN2DEC(F16)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>2</v>
+      </c>
+      <c r="B17" s="3">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" ref="C17:C25" si="5">B17^2+B17+2</f>
+        <v>212</v>
+      </c>
+      <c r="D17" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>001110</v>
+      </c>
+      <c r="E17" s="2" t="str">
+        <f>LEFT(D17,ROUNDDOWN(LEN(D17)/2,0))&amp;RIGHT(D16,ROUNDDOWN(LEN(D16)/2,0))</f>
+        <v>001111</v>
+      </c>
+      <c r="F17" s="2" t="str">
+        <f t="shared" ref="F17:F25" si="6">IF(MID(E17,3,1)="0",REPLACE(E17,3,1,1),REPLACE(E17,3,1,0))</f>
+        <v>000111</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" ref="G17:G25" si="7">BIN2DEC(F17)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>7</v>
+      </c>
+      <c r="B18" s="1">
+        <v>13</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="5"/>
+        <v>184</v>
+      </c>
+      <c r="D18" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>001101</v>
+      </c>
+      <c r="E18" s="2" t="str">
+        <f>LEFT(D18,ROUNDDOWN(LEN(D18)/2,0))&amp;RIGHT(D19,ROUNDDOWN(LEN(D19)/2,0))</f>
+        <v>001100</v>
+      </c>
+      <c r="F18" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>000100</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>8</v>
+      </c>
+      <c r="B19" s="3">
+        <v>12</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="5"/>
+        <v>158</v>
+      </c>
+      <c r="D19" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>001100</v>
+      </c>
+      <c r="E19" s="2" t="str">
+        <f>LEFT(D19,ROUNDDOWN(LEN(D19)/2,0))&amp;RIGHT(D18,ROUNDDOWN(LEN(D18)/2,0))</f>
+        <v>001101</v>
+      </c>
+      <c r="F19" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>000101</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>14</v>
+      </c>
+      <c r="B20" s="1">
+        <v>11</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="5"/>
+        <v>134</v>
+      </c>
+      <c r="D20" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>001011</v>
+      </c>
+      <c r="E20" s="2" t="str">
+        <f>LEFT(D20,ROUNDDOWN(LEN(D20)/2,0))&amp;RIGHT(D21,ROUNDDOWN(LEN(D21)/2,0))</f>
+        <v>001010</v>
+      </c>
+      <c r="F20" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>000010</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>15</v>
+      </c>
+      <c r="B21" s="3">
+        <v>10</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="5"/>
+        <v>112</v>
+      </c>
+      <c r="D21" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>001010</v>
+      </c>
+      <c r="E21" s="2" t="str">
+        <f>LEFT(D21,ROUNDDOWN(LEN(D21)/2,0))&amp;RIGHT(D20,ROUNDDOWN(LEN(D20)/2,0))</f>
+        <v>001011</v>
+      </c>
+      <c r="F21" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>000011</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>12</v>
+      </c>
+      <c r="B22" s="1">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" si="5"/>
+        <v>74</v>
+      </c>
+      <c r="D22" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>001000</v>
+      </c>
+      <c r="E22" s="2" t="str">
+        <f>LEFT(D22,ROUNDDOWN(LEN(D22)/2,0))&amp;RIGHT(D23,ROUNDDOWN(LEN(D23)/2,0))</f>
+        <v>001111</v>
+      </c>
+      <c r="F22" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>000111</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>13</v>
+      </c>
+      <c r="B23" s="3">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="D23" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>000111</v>
+      </c>
+      <c r="E23" s="2" t="str">
+        <f>LEFT(D23,ROUNDDOWN(LEN(D23)/2,0))&amp;RIGHT(D22,ROUNDDOWN(LEN(D22)/2,0))</f>
+        <v>000000</v>
+      </c>
+      <c r="F23" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>001000</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>10</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="D24" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>000010</v>
+      </c>
+      <c r="E24" s="2" t="str">
+        <f>LEFT(D24,ROUNDDOWN(LEN(D24)/2,0))&amp;RIGHT(D25,ROUNDDOWN(LEN(D25)/2,0))</f>
+        <v>000001</v>
+      </c>
+      <c r="F24" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>001001</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>11</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="D25" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>000001</v>
+      </c>
+      <c r="E25" s="2" t="str">
+        <f>LEFT(D25,ROUNDDOWN(LEN(D25)/2,0))&amp;RIGHT(D24,ROUNDDOWN(LEN(D24)/2,0))</f>
+        <v>000010</v>
+      </c>
+      <c r="F25" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>001010</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" cm="1">
+        <f t="array" ref="A27:A36">G16:G25</f>
+        <v>6</v>
+      </c>
+      <c r="B27" s="1" cm="1">
+        <f t="array" ref="B27:B36">_xlfn._xlws.SORT(A27:A36,1,-1)</f>
+        <v>10</v>
+      </c>
+      <c r="C27" s="1">
+        <f>B27^2+B27+2</f>
+        <v>112</v>
+      </c>
+      <c r="D27" s="2" t="str">
+        <f t="shared" ref="D27:D36" si="8">DEC2BIN(B27,6)</f>
+        <v>001010</v>
+      </c>
+      <c r="E27" s="2" t="str">
+        <f>LEFT(D27,ROUNDDOWN(LEN(D27)/2,0))&amp;RIGHT(D28,ROUNDDOWN(LEN(D28)/2,0))</f>
+        <v>001001</v>
+      </c>
+      <c r="F27" s="2" t="str">
+        <f>IF(MID(E27,3,1)="0",REPLACE(E27,3,1,1),REPLACE(E27,3,1,0))</f>
+        <v>000001</v>
+      </c>
+      <c r="G27" s="1">
+        <f>BIN2DEC(F27)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>7</v>
+      </c>
+      <c r="B28" s="3">
+        <v>9</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" ref="C28:C36" si="9">B28^2+B28+2</f>
+        <v>92</v>
+      </c>
+      <c r="D28" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>001001</v>
+      </c>
+      <c r="E28" s="2" t="str">
+        <f>LEFT(D28,ROUNDDOWN(LEN(D28)/2,0))&amp;RIGHT(D27,ROUNDDOWN(LEN(D27)/2,0))</f>
+        <v>001010</v>
+      </c>
+      <c r="F28" s="2" t="str">
+        <f t="shared" ref="F28:F36" si="10">IF(MID(E28,3,1)="0",REPLACE(E28,3,1,1),REPLACE(E28,3,1,0))</f>
+        <v>000010</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" ref="G28:G36" si="11">BIN2DEC(F28)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1">
+        <v>8</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" si="9"/>
+        <v>74</v>
+      </c>
+      <c r="D29" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>001000</v>
+      </c>
+      <c r="E29" s="2" t="str">
+        <f>LEFT(D29,ROUNDDOWN(LEN(D29)/2,0))&amp;RIGHT(D30,ROUNDDOWN(LEN(D30)/2,0))</f>
+        <v>001111</v>
+      </c>
+      <c r="F29" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>000111</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>5</v>
+      </c>
+      <c r="B30" s="3">
+        <v>7</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" si="9"/>
+        <v>58</v>
+      </c>
+      <c r="D30" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>000111</v>
+      </c>
+      <c r="E30" s="2" t="str">
+        <f>LEFT(D30,ROUNDDOWN(LEN(D30)/2,0))&amp;RIGHT(D29,ROUNDDOWN(LEN(D29)/2,0))</f>
+        <v>000000</v>
+      </c>
+      <c r="F30" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>001000</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>2</v>
+      </c>
+      <c r="B31" s="1">
+        <v>7</v>
+      </c>
+      <c r="C31" s="1">
+        <f t="shared" si="9"/>
+        <v>58</v>
+      </c>
+      <c r="D31" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>000111</v>
+      </c>
+      <c r="E31" s="2" t="str">
+        <f>LEFT(D31,ROUNDDOWN(LEN(D31)/2,0))&amp;RIGHT(D32,ROUNDDOWN(LEN(D32)/2,0))</f>
+        <v>000110</v>
+      </c>
+      <c r="F31" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>001110</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>3</v>
+      </c>
+      <c r="B32" s="3">
+        <v>6</v>
+      </c>
+      <c r="C32" s="1">
+        <f t="shared" si="9"/>
+        <v>44</v>
+      </c>
+      <c r="D32" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>000110</v>
+      </c>
+      <c r="E32" s="2" t="str">
+        <f>LEFT(D32,ROUNDDOWN(LEN(D32)/2,0))&amp;RIGHT(D31,ROUNDDOWN(LEN(D31)/2,0))</f>
+        <v>000111</v>
+      </c>
+      <c r="F32" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>001111</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" si="11"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>7</v>
+      </c>
+      <c r="B33" s="1">
+        <v>5</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="9"/>
+        <v>32</v>
+      </c>
+      <c r="D33" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>000101</v>
+      </c>
+      <c r="E33" s="2" t="str">
+        <f>LEFT(D33,ROUNDDOWN(LEN(D33)/2,0))&amp;RIGHT(D34,ROUNDDOWN(LEN(D34)/2,0))</f>
+        <v>000100</v>
+      </c>
+      <c r="F33" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>001100</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>8</v>
+      </c>
+      <c r="B34" s="3">
+        <v>4</v>
+      </c>
+      <c r="C34" s="1">
+        <f t="shared" si="9"/>
+        <v>22</v>
+      </c>
+      <c r="D34" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>000100</v>
+      </c>
+      <c r="E34" s="2" t="str">
+        <f>LEFT(D34,ROUNDDOWN(LEN(D34)/2,0))&amp;RIGHT(D33,ROUNDDOWN(LEN(D33)/2,0))</f>
+        <v>000101</v>
+      </c>
+      <c r="F34" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>001101</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>9</v>
+      </c>
+      <c r="B35" s="1">
+        <v>3</v>
+      </c>
+      <c r="C35" s="1">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="D35" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>000011</v>
+      </c>
+      <c r="E35" s="2" t="str">
+        <f>LEFT(D35,ROUNDDOWN(LEN(D35)/2,0))&amp;RIGHT(D36,ROUNDDOWN(LEN(D36)/2,0))</f>
+        <v>000010</v>
+      </c>
+      <c r="F35" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>001010</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>10</v>
+      </c>
+      <c r="B36" s="1">
+        <v>2</v>
+      </c>
+      <c r="C36" s="1">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="D36" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>000010</v>
+      </c>
+      <c r="E36" s="2" t="str">
+        <f>LEFT(D36,ROUNDDOWN(LEN(D36)/2,0))&amp;RIGHT(D35,ROUNDDOWN(LEN(D35)/2,0))</f>
+        <v>000011</v>
+      </c>
+      <c r="F36" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>001011</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C4:D4"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>